--- a/data/trans_orig/P64D1_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P64D1_R-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>108833</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91761</v>
+        <v>90721</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>128266</v>
+        <v>129516</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2921570832938682</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2463274073180063</v>
+        <v>0.2435350565029845</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3443228585129893</v>
+        <v>0.3476780158629685</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>152</v>
@@ -762,19 +762,19 @@
         <v>105476</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>91713</v>
+        <v>91450</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>120116</v>
+        <v>121259</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3213464576857611</v>
+        <v>0.3213464576857613</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2794160631325326</v>
+        <v>0.2786135862624133</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3659491605351392</v>
+        <v>0.3694317608769359</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>253</v>
@@ -783,19 +783,19 @@
         <v>214309</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>191656</v>
+        <v>191149</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>238622</v>
+        <v>240511</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3058294553025029</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2735013971245174</v>
+        <v>0.2727784479656977</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.34052501719933</v>
+        <v>0.3432209583569512</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>263683</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>244250</v>
+        <v>243000</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>280755</v>
+        <v>281795</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7078429167061319</v>
+        <v>0.7078429167061318</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6556771414870106</v>
+        <v>0.6523219841370318</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7536725926819936</v>
+        <v>0.756464943497016</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>286</v>
@@ -833,19 +833,19 @@
         <v>222756</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>208116</v>
+        <v>206973</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>236519</v>
+        <v>236782</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6786535423142387</v>
+        <v>0.6786535423142388</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6340508394648608</v>
+        <v>0.630568239123064</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7205839368674675</v>
+        <v>0.7213864137375866</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>513</v>
@@ -854,19 +854,19 @@
         <v>486439</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>462126</v>
+        <v>460237</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>509092</v>
+        <v>509599</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6941705446974971</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6594749828006704</v>
+        <v>0.656779041643049</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7264986028754826</v>
+        <v>0.7272215520343024</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>70064</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53942</v>
+        <v>55757</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>86649</v>
+        <v>86589</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2206051361521903</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1698427033791509</v>
+        <v>0.1755594045665814</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2728250687701564</v>
+        <v>0.2726359255924087</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>120</v>
@@ -979,19 +979,19 @@
         <v>90011</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76867</v>
+        <v>75276</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>104227</v>
+        <v>104730</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.332015524136108</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2835311616857587</v>
+        <v>0.2776626794977853</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3844524140290404</v>
+        <v>0.3863071233270949</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>186</v>
@@ -1000,19 +1000,19 @@
         <v>160075</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>138589</v>
+        <v>139645</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>182103</v>
+        <v>182254</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2719109202622275</v>
+        <v>0.2719109202622274</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.235413203081333</v>
+        <v>0.2372082139791283</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.309328909204842</v>
+        <v>0.3095851281918989</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>247535</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>230950</v>
+        <v>231010</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>263657</v>
+        <v>261842</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7793948638478096</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7271749312298436</v>
+        <v>0.7273640744075913</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8301572966208489</v>
+        <v>0.8244405954334186</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>238</v>
@@ -1050,19 +1050,19 @@
         <v>181094</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>166878</v>
+        <v>166375</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>194238</v>
+        <v>195829</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.667984475863892</v>
+        <v>0.6679844758638919</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6155475859709595</v>
+        <v>0.6136928766729048</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7164688383142414</v>
+        <v>0.7223373205022147</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>445</v>
@@ -1071,19 +1071,19 @@
         <v>428629</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>406601</v>
+        <v>406450</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>450115</v>
+        <v>449059</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7280890797377727</v>
+        <v>0.7280890797377725</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6906710907951581</v>
+        <v>0.6904148718081011</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7645867969186672</v>
+        <v>0.7627917860208718</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>72479</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56882</v>
+        <v>57781</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90284</v>
+        <v>89022</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2698438297763702</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2117757142522144</v>
+        <v>0.215122865577342</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3361348712091796</v>
+        <v>0.3314355766670028</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -1196,19 +1196,19 @@
         <v>39269</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31738</v>
+        <v>31562</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47332</v>
+        <v>46752</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4807010866052521</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.388511988969051</v>
+        <v>0.3863572670200184</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5793978594275218</v>
+        <v>0.5722997879146775</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -1217,19 +1217,19 @@
         <v>111748</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>95066</v>
+        <v>94534</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130358</v>
+        <v>131160</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3190183355725862</v>
+        <v>0.3190183355725861</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2713943856271998</v>
+        <v>0.2698777686634536</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3721483793968276</v>
+        <v>0.3744370565181936</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>196116</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>178311</v>
+        <v>179573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>211713</v>
+        <v>210814</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7301561702236299</v>
+        <v>0.73015617022363</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6638651287908205</v>
+        <v>0.6685644233329968</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7882242857477854</v>
+        <v>0.7848771344226577</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -1267,19 +1267,19 @@
         <v>42422</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34359</v>
+        <v>34939</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49953</v>
+        <v>50129</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5192989133947478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4206021405724781</v>
+        <v>0.4277002120853224</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6114880110309487</v>
+        <v>0.6136427329799813</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>222</v>
@@ -1288,19 +1288,19 @@
         <v>238538</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>219928</v>
+        <v>219126</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>255220</v>
+        <v>255752</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6809816644274139</v>
+        <v>0.6809816644274138</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6278516206031722</v>
+        <v>0.6255629434818062</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7286056143728</v>
+        <v>0.7301222313365464</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>156054</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>133705</v>
+        <v>134021</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>182396</v>
+        <v>183732</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2534595837452335</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.217161146448181</v>
+        <v>0.2176739576355362</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2962428900732636</v>
+        <v>0.2984134438262963</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>263</v>
@@ -1413,19 +1413,19 @@
         <v>192535</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>173224</v>
+        <v>173244</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>213795</v>
+        <v>210508</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.406129796942244</v>
+        <v>0.4061297969422441</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3653960419478225</v>
+        <v>0.3654374618287882</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4509753028848605</v>
+        <v>0.4440406021440576</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>394</v>
@@ -1434,19 +1434,19 @@
         <v>348589</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>317928</v>
+        <v>318031</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>383763</v>
+        <v>383694</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.319874386224858</v>
+        <v>0.3198743862248581</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2917388260087345</v>
+        <v>0.2918331776824444</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3521503961311485</v>
+        <v>0.3520878592660571</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>459642</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>433300</v>
+        <v>431964</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>481991</v>
+        <v>481675</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7465404162547663</v>
+        <v>0.7465404162547665</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7037571099267363</v>
+        <v>0.7015865561737037</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7828388535518188</v>
+        <v>0.7823260423644636</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>362</v>
@@ -1484,19 +1484,19 @@
         <v>281538</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>260278</v>
+        <v>263565</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>300849</v>
+        <v>300829</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5938702030577558</v>
+        <v>0.593870203057756</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5490246971151397</v>
+        <v>0.5559593978559424</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6346039580521776</v>
+        <v>0.6345625381712119</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>759</v>
@@ -1505,19 +1505,19 @@
         <v>741180</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>706006</v>
+        <v>706075</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>771841</v>
+        <v>771738</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6801256137751418</v>
+        <v>0.680125613775142</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6478496038688518</v>
+        <v>0.6479121407339429</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7082611739912658</v>
+        <v>0.7081668223175558</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>52498</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37041</v>
+        <v>36833</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71127</v>
+        <v>70368</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1714689623652286</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1209823082118503</v>
+        <v>0.1203046570169698</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2323136784572454</v>
+        <v>0.2298341048702988</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>161</v>
@@ -1630,19 +1630,19 @@
         <v>116049</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>101036</v>
+        <v>102205</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132252</v>
+        <v>132853</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3780574907131973</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3291519852939442</v>
+        <v>0.3329570722669212</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4308433997495255</v>
+        <v>0.4328031638977312</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>199</v>
@@ -1651,19 +1651,19 @@
         <v>168547</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>144640</v>
+        <v>147752</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>191953</v>
+        <v>193700</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2748969572900824</v>
+        <v>0.2748969572900823</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2359047389770111</v>
+        <v>0.2409810862558799</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3130718888118972</v>
+        <v>0.3159206947436253</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>253669</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>235040</v>
+        <v>235799</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>269126</v>
+        <v>269334</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8285310376347714</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7676863215427545</v>
+        <v>0.770165895129701</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8790176917881496</v>
+        <v>0.8796953429830301</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>260</v>
@@ -1701,19 +1701,19 @@
         <v>190911</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>174708</v>
+        <v>174107</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>205924</v>
+        <v>204755</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6219425092868027</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5691566002504745</v>
+        <v>0.5671968361022686</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6708480147060558</v>
+        <v>0.6670429277330786</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>473</v>
@@ -1722,19 +1722,19 @@
         <v>444580</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>421174</v>
+        <v>419427</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>468487</v>
+        <v>465375</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7251030427099177</v>
+        <v>0.7251030427099175</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6869281111881028</v>
+        <v>0.6840793052563744</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7640952610229887</v>
+        <v>0.7590189137441198</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>459928</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>418806</v>
+        <v>416015</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>503160</v>
+        <v>503743</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2445680572598014</v>
+        <v>0.2445680572598013</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2227013690945279</v>
+        <v>0.2212170593555937</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2675566427360053</v>
+        <v>0.2678670212179993</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>755</v>
@@ -1847,19 +1847,19 @@
         <v>543340</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>509534</v>
+        <v>514709</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>575843</v>
+        <v>576464</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3716260290136255</v>
+        <v>0.3716260290136253</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3485037803928963</v>
+        <v>0.3520435131216661</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3938570046443919</v>
+        <v>0.3942815916625095</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1161</v>
@@ -1868,19 +1868,19 @@
         <v>1003268</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>952379</v>
+        <v>948515</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1059597</v>
+        <v>1059322</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3001429498428747</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2849188121051863</v>
+        <v>0.2837627822115327</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.31699456781275</v>
+        <v>0.3169122264332886</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>1420645</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1377413</v>
+        <v>1376830</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1461767</v>
+        <v>1464558</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7554319427401988</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7324433572639948</v>
+        <v>0.7321329787820007</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7772986309054722</v>
+        <v>0.7787829406444065</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1201</v>
@@ -1918,19 +1918,19 @@
         <v>918721</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>886218</v>
+        <v>885597</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>952527</v>
+        <v>947352</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6283739709863746</v>
+        <v>0.6283739709863745</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6061429953556081</v>
+        <v>0.6057184083374906</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6514962196071042</v>
+        <v>0.647956486878334</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2412</v>
@@ -1939,19 +1939,19 @@
         <v>2339366</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2283037</v>
+        <v>2283312</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2390255</v>
+        <v>2394119</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6998570501571253</v>
+        <v>0.6998570501571251</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6830054321872501</v>
+        <v>0.6830877735667112</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.715081187894814</v>
+        <v>0.7162372177884668</v>
       </c>
     </row>
     <row r="21">
